--- a/biology/Zoologie/Agnosphitys/Agnosphitys.xlsx
+++ b/biology/Zoologie/Agnosphitys/Agnosphitys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agnosphitys cromhallensis
 Agnosphitys (« race inconnue ») est un genre éteint de petits dinosaures dont l'attribution taxonomique est incertaine, comme son nom l'indique. 
@@ -513,9 +525,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été découverte en Angleterre dans la carrière de Cromhall (Gloucestershire), dont les fossiles datent du Trias supérieur, et plus précisément du Norien (227 à 208 millions d'années)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été découverte en Angleterre dans la carrière de Cromhall (Gloucestershire), dont les fossiles datent du Trias supérieur, et plus précisément du Norien (227 à 208 millions d'années).
 Les éléments fossiles retrouvés sont composés d'un maxillaire gauche avec quelques dents, trois astragales complètes, des humérus (quelques fragments et deux os presque complets) et plusieurs ilions.
 </t>
         </is>
@@ -545,14 +559,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bien que les auteurs de la découverte le considèrent comme un dinosauromorphe, l'espèce est considérée comme un nomen dubium}[2]. Les os sont exposés au museum d'histoire naturelle de l'État de Virginie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bien que les auteurs de la découverte le considèrent comme un dinosauromorphe, l'espèce est considérée comme un nomen dubium}. Les os sont exposés au museum d'histoire naturelle de l'État de Virginie.
 D'autres hypothèses, très différentes, en font :
-un théropode de la famille des Herrerasauridae[4] ;
-un sauropodomorphe basal de la famille des Guaibasauridae[5] ;
-un saurischien eusaurischien basal[6] ;
-un Dinosauriformes de la famille des Silesauridae[7].</t>
+un théropode de la famille des Herrerasauridae ;
+un sauropodomorphe basal de la famille des Guaibasauridae ;
+un saurischien eusaurischien basal ;
+un Dinosauriformes de la famille des Silesauridae.</t>
         </is>
       </c>
     </row>
@@ -580,13 +596,15 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Son nom signifie de race inconnue
 Époque :  Trias supérieur , Norien : - 227  à - 208 Ma (millions d'années)
-Taille :  50 à 70 cm de long[8],  15 cm de haut, 3 kg
+Taille :  50 à 70 cm de long,  15 cm de haut, 3 kg
 Habitat : Europe
-Régime alimentaire : insectes et petits animaux[3]</t>
+Régime alimentaire : insectes et petits animaux</t>
         </is>
       </c>
     </row>
